--- a/biology/Zoologie/Chevalier_cul-blanc/Chevalier_cul-blanc.xlsx
+++ b/biology/Zoologie/Chevalier_cul-blanc/Chevalier_cul-blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tringa ochropus
 Le Chevalier culblanc ou cul-blanc (Tringa ochropus) est une espèce d'oiseaux limicoles de la famille des Scolopacidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chevalier culblanc est un échassier mesurant 20  à   24 cm de long et 39  à   44 cm d'envergure. Les mâles et femelles sont identiques.
 Cet oiseau a les ailes noirâtres tachetées de blanc. Son poitrail est strié de gris et son ventre est blanc avec une nette démarcation du poitrail. Le Chevalier culblanc tire son nom de son croupion qui est blanc, sa queue, elle, est aussi blanche mais sa partie distale est marquée par des larges barres noires.
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les milieux humides (marais, tourbières, lacs...), mais peut faire des haltes migratoires dans des zones cultivées, des côtes et même des villes.
 </t>
@@ -577,9 +593,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chevalier culblanc bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[1]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chevalier culblanc bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chevalier culblanc peut être confondu avec deux oiseaux : le Chevalier guignette, un oiseau européen, et le Chevalier solitaire, un oiseau américain.
 Différence avec le Chevalier guignette : le Chevalier guignette arbore une "virgule" blanche en avant de son poignet, a un bec plus court, un sourcil plus marqué et n'a pas le croupion blanc.
